--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1533006.016466487</v>
+        <v>1525989.001574776</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665972</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164.2652266375077</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>133.9224906538178</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>54.46079155833902</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>366.7296056912825</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>141.8493698519414</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>59.6865769213715</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>50.97869079464299</v>
+        <v>408.705567410484</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>129.0246247964035</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.03250833503029</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505273781</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>115.5269768002167</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273781</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7644211441605784</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>139.1537278750027</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273781</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>39.5596058228581</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>54.13622231948307</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.4898845065123</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>152.3458132526254</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>49.38162151975411</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>161.6195484041297</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>76.42732515472716</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>106.5715106210547</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.34798888139578</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>26.12759070766478</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>88.23851788996306</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>114.4760112588799</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>118.4898845065125</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>191.2952892163686</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1317.778685247039</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.778685247039</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2385.696360247728</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2131.93457488582</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2131.93457488582</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>2131.93457488582</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>2131.93457488582</v>
       </c>
       <c r="Y2" t="n">
-        <v>1483.703156598057</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154.6104068172089</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>154.6104068172089</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>154.6104068172089</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>154.6104068172089</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>154.6104068172089</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1723.03492661696</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1354.072409676548</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>995.8067110697975</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>995.8067110697975</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2498.838209779078</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2280.203542751141</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2280.203542751141</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1949.14065540757</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1596.372000137456</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1222.906241876376</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y5" t="n">
-        <v>1222.906241876376</v>
+        <v>1723.03492661696</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4731,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>490.2759348564911</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>490.2759348564911</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>490.2759348564911</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
         <v>235.5914466506042</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>885.3850306156796</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="C8" t="n">
-        <v>516.422513675268</v>
+        <v>1744.21174165236</v>
       </c>
       <c r="D8" t="n">
-        <v>516.422513675268</v>
+        <v>1744.21174165236</v>
       </c>
       <c r="E8" t="n">
-        <v>516.422513675268</v>
+        <v>1358.423489054116</v>
       </c>
       <c r="F8" t="n">
-        <v>105.4366088856604</v>
+        <v>947.4375842645084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916693</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.124202655613</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1271.984870679801</v>
+        <v>2113.174258592772</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785277</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.193237080544</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822432</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256433</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845916</v>
+        <v>534.5429807341668</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977053</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641085</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136706</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>213.9110074201007</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
         <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347407</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609655</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550787</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318118</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>213.9110074201007</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>213.9110074201007</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.193237080544</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822432</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="15">
@@ -5345,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256433</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341668</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.007103038344</v>
+        <v>237.7764125461471</v>
       </c>
       <c r="C16" t="n">
-        <v>675.007103038344</v>
+        <v>237.7764125461471</v>
       </c>
       <c r="D16" t="n">
-        <v>675.007103038344</v>
+        <v>237.7764125461471</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>237.7764125461471</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>237.7764125461471</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>237.7764125461471</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="V16" t="n">
-        <v>675.007103038344</v>
+        <v>755.1831334811251</v>
       </c>
       <c r="W16" t="n">
-        <v>675.007103038344</v>
+        <v>465.7659634441645</v>
       </c>
       <c r="X16" t="n">
-        <v>675.007103038344</v>
+        <v>237.7764125461471</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.007103038344</v>
+        <v>237.7764125461471</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.193237080544</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822432</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775526</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>306.1124721890595</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C19" t="n">
-        <v>137.1762892611526</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D19" t="n">
-        <v>137.1762892611526</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E19" t="n">
-        <v>137.1762892611526</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F19" t="n">
-        <v>137.1762892611526</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>709.4512536188987</v>
       </c>
       <c r="W19" t="n">
-        <v>754.894602230607</v>
+        <v>709.4512536188987</v>
       </c>
       <c r="X19" t="n">
-        <v>526.9050513325897</v>
+        <v>481.4617027208814</v>
       </c>
       <c r="Y19" t="n">
-        <v>306.1124721890595</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="20">
@@ -5731,37 +5731,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5773,28 +5773,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>709.4934589365146</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4571.72593422785</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>4317.041446021964</v>
+        <v>1345.031610706765</v>
       </c>
       <c r="W22" t="n">
-        <v>4027.624275985003</v>
+        <v>1345.031610706765</v>
       </c>
       <c r="X22" t="n">
-        <v>3799.634725086986</v>
+        <v>1117.042059808748</v>
       </c>
       <c r="Y22" t="n">
-        <v>3578.842145943456</v>
+        <v>896.249480665218</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5983,7 +5983,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,7 +5992,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>2786.879505108311</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L24" t="n">
-        <v>3033.644633014775</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M24" t="n">
-        <v>3340.964766294737</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N24" t="n">
-        <v>3670.827393958769</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O24" t="n">
-        <v>4045.444533962831</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916676</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4571.72593422785</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V25" t="n">
-        <v>4317.041446021964</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W25" t="n">
-        <v>4027.624275985003</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X25" t="n">
-        <v>3799.634725086986</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="Y25" t="n">
-        <v>3578.842145943456</v>
+        <v>441.9005583181187</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4586.527400481037</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4586.527400481037</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4586.527400481037</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4586.527400481037</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4586.527400481037</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4586.527400481037</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>4365.734821337507</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6463,16 +6463,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6499,13 +6499,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614725</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>751.4342788065931</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>751.4342788065931</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,10 +6721,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,22 +6776,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O33" t="n">
         <v>2331.418122136705</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.6350999123426</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C34" t="n">
-        <v>247.6350999123426</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>247.6350999123426</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6891,19 +6891,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1167.48286482109</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W34" t="n">
-        <v>878.0656947841297</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X34" t="n">
-        <v>650.0761438861124</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y34" t="n">
-        <v>429.2835647425823</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N36" t="n">
-        <v>1433.546326320615</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7174,16 +7174,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7365,19 +7365,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1186.00103929694</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>896.5838692599799</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>668.5943183619626</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.8017392184324</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="41">
@@ -7408,34 +7408,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7447,7 +7447,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.3840174432676</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="C43" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735073</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7733,22 +7733,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1387.841167119728</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>1194.613602254709</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>966.6240513566914</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.8314722131613</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165137</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305402</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445224</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>423.3376789165137</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445224</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,16 +9248,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978339</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>176.717654749846</v>
       </c>
       <c r="M21" t="n">
-        <v>96.03744927814711</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,28 +9719,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>96.03744927814608</v>
+        <v>52.49733361305351</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>253.7371603504743</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,16 +10433,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229581</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>85.30006332127823</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>51.7198442984111</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6695415024086</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>9.760100492533439</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>126.9339626405195</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>164.4484310326117</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.34209567542497</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24183,13 +24183,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>99.79183007120258</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61.34209567542497</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8651995788737</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24417,7 +24417,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>36.30126157947356</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>70.00663749184201</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>145.5661327027732</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>133.3616665076414</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>141.1192303909631</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>163.8991254338649</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>52.77080983974793</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>48.00368395686506</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26079,13 +26079,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>95.22770912022236</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144791</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144791</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144791</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144792</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
   </sheetData>
@@ -26316,40 +26316,40 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.418698365</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.418698365</v>
       </c>
       <c r="G2" t="n">
+        <v>449683.4186983649</v>
+      </c>
+      <c r="H2" t="n">
         <v>449683.4186983651</v>
       </c>
-      <c r="H2" t="n">
-        <v>449683.4186983653</v>
-      </c>
       <c r="I2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.418698365</v>
       </c>
       <c r="J2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="L2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="N2" t="n">
         <v>449683.4186983653</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449683.4186983654</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449683.4186983652</v>
       </c>
       <c r="O2" t="n">
         <v>449683.4186983652</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768954</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26475,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26499,16 +26499,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357502.8978572136</v>
+        <v>-357502.8978572135</v>
       </c>
       <c r="C6" t="n">
-        <v>232464.9813573308</v>
+        <v>232464.9813573309</v>
       </c>
       <c r="D6" t="n">
-        <v>232464.9813573308</v>
+        <v>232464.9813573309</v>
       </c>
       <c r="E6" t="n">
-        <v>-182509.6133486863</v>
+        <v>-183484.2046084077</v>
       </c>
       <c r="F6" t="n">
-        <v>342650.4231282093</v>
+        <v>341675.8318684876</v>
       </c>
       <c r="G6" t="n">
-        <v>342650.4231282094</v>
+        <v>341675.8318684874</v>
       </c>
       <c r="H6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.8318684877</v>
       </c>
       <c r="I6" t="n">
-        <v>342650.4231282096</v>
+        <v>341675.8318684876</v>
       </c>
       <c r="J6" t="n">
-        <v>166227.2039356165</v>
+        <v>165252.6126758949</v>
       </c>
       <c r="K6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.8318684879</v>
       </c>
       <c r="L6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.8318684878</v>
       </c>
       <c r="M6" t="n">
-        <v>207849.4078943725</v>
+        <v>206874.8166346508</v>
       </c>
       <c r="N6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.831868488</v>
       </c>
       <c r="O6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.8318684876</v>
       </c>
       <c r="P6" t="n">
-        <v>342650.4231282096</v>
+        <v>341675.8318684881</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054540997</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054540997</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26776,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,14 +26968,14 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370129</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.4686150259728</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>82.52582970384</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>94.15468145987333</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>40.14644005042896</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>32.56634295703009</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>152.4589620286474</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>362.805479226152</v>
+        <v>5.078602610310952</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>38.22219630222429</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>107.5829646831821</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444943</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,22 +31846,22 @@
         <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095117</v>
@@ -31870,10 +31870,10 @@
         <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
         <v>173.9719203557933</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469072</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,46 +32466,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,43 +32545,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,43 +32627,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N22" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,10 +32782,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32794,7 +32794,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
@@ -32803,10 +32803,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32882,7 +32882,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,10 +32894,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P11" t="n">
         <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490657</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594833</v>
+        <v>249.257704956024</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004659</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>756.5322523145263</v>
       </c>
       <c r="O12" t="n">
-        <v>334.861035854162</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>88.01303278507396</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490657</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956024</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004659</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>756.5322523145263</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507396</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958075</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058702</v>
       </c>
       <c r="M21" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
-        <v>378.4011515192542</v>
+        <v>334.8610358541616</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315246</v>
@@ -37320,7 +37320,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>367.6637655623863</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1525989.001574776</v>
+        <v>1530928.264423807</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665972</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>162.9033893520716</v>
       </c>
       <c r="T2" t="n">
-        <v>133.9224906538178</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>366.7296056912825</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>126.6526411744826</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.54110646053125</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>43.31785343914003</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>408.705567410484</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.2557485598869</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>41.03250833503029</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273781</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>115.5269768002167</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>26.97444673954864</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505273781</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>139.7861096747049</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>139.1537278750027</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505273781</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>43.53776261087656</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>54.13622231948307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>114.5779100067049</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>152.3458132526254</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>49.38162151975411</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>127.4321567831319</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.34798888139578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>26.12759070766478</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>118.4898845065125</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1745.334734821698</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C2" t="n">
         <v>1376.372217881286</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2532.600212884817</v>
       </c>
       <c r="T2" t="n">
-        <v>2385.696360247728</v>
+        <v>2313.96554585688</v>
       </c>
       <c r="U2" t="n">
-        <v>2131.93457488582</v>
+        <v>2060.203760494971</v>
       </c>
       <c r="V2" t="n">
-        <v>2131.93457488582</v>
+        <v>1729.1408731514</v>
       </c>
       <c r="W2" t="n">
-        <v>2131.93457488582</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="X2" t="n">
-        <v>2131.93457488582</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="Y2" t="n">
-        <v>2131.93457488582</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1723.03492661696</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="C5" t="n">
-        <v>1354.072409676548</v>
+        <v>1336.914798597272</v>
       </c>
       <c r="D5" t="n">
-        <v>995.8067110697975</v>
+        <v>978.649099990522</v>
       </c>
       <c r="E5" t="n">
-        <v>995.8067110697975</v>
+        <v>592.8608473922777</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>181.8749426026702</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4606,13 +4606,13 @@
         <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1723.03492661696</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>400.6823320653275</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>253.7923845674171</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>684.3735766921516</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113.174258592772</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1744.21174165236</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1744.21174165236</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1358.423489054116</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>947.4375842645084</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592772</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>2113.174258592772</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2113.174258592772</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,22 +4886,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785277</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405193</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155859</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080544</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822432</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256433</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.777852827703</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341668</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126628</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2338.69837048303</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>213.9110074201007</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028581</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028581</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028581</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028581</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028581</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028581</v>
+        <v>124.4640073588198</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557901</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347407</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609655</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550787</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318118</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201007</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.9110074201007</v>
+        <v>306.1124721890595</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405193</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155859</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080544</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822432</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256433</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.777852827703</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341668</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126628</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>237.7764125461471</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C16" t="n">
-        <v>237.7764125461471</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>237.7764125461471</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>237.7764125461471</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>237.7764125461471</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>237.7764125461471</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473454</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687012</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>755.1831334811251</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>465.7659634441645</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X16" t="n">
-        <v>237.7764125461471</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y16" t="n">
-        <v>237.7764125461471</v>
+        <v>1020.446367141521</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405193</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155859</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080544</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822432</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277031</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775526</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170014</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136706</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.1301850426789</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C19" t="n">
-        <v>245.1301850426789</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D19" t="n">
-        <v>245.1301850426789</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028581</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028581</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028581</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028581</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247856</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247856</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188987</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>709.4512536188987</v>
+        <v>1200.254244361231</v>
       </c>
       <c r="X19" t="n">
-        <v>481.4617027208814</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="Y19" t="n">
-        <v>426.7786498729187</v>
+        <v>972.2646934632137</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,31 +5770,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277031</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>709.4934589365146</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.6010158349783</v>
+        <v>826.3487253058607</v>
       </c>
       <c r="C22" t="n">
-        <v>545.6648329070714</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D22" t="n">
-        <v>395.5481934947356</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123425</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123425</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>1345.031610706765</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W22" t="n">
-        <v>1345.031610706765</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X22" t="n">
-        <v>1117.042059808748</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y22" t="n">
-        <v>896.249480665218</v>
+        <v>826.3487253058607</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277032</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845919</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977053</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N24" t="n">
-        <v>1999.905696641086</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>441.9005583181187</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6150,19 +6150,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609662</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550793</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181187</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>441.9005583181187</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>441.9005583181187</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6411,7 +6411,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
         <v>1158.436939387592</v>
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6508,7 +6508,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6645,25 +6645,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6682,28 +6682,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>986.0022165609664</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,22 +7168,22 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7195,7 +7195,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,55 +7387,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286137</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,28 +7627,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514083</v>
@@ -7666,13 +7666,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165137</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445224</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165137</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445224</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,10 +9248,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978339</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>176.717654749846</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>52.49733361305351</v>
+        <v>392.1113620226438</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>51.7198442984111</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>83.44479872472336</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>40.04587050723242</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>9.760100492533439</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.984279490192421e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>242.9852357257144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>164.4484310326117</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>52.66891109192291</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>99.79183007120258</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>117.8651995788737</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>158.8051956154454</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.3616665076414</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>141.1192303909631</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>48.00368395686506</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933176.1663144791</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933176.1663144791</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933176.1663144791</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933176.1663144792</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983649</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="H2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="I2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="J2" t="n">
         <v>449683.4186983651</v>
-      </c>
-      <c r="I2" t="n">
-        <v>449683.418698365</v>
-      </c>
-      <c r="J2" t="n">
-        <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="M2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983654</v>
       </c>
       <c r="N2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="O2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="O2" t="n">
-        <v>449683.4186983652</v>
-      </c>
       <c r="P2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983654</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768954</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26475,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357502.8978572135</v>
+        <v>-357502.8978572136</v>
       </c>
       <c r="C6" t="n">
-        <v>232464.9813573309</v>
+        <v>232464.9813573308</v>
       </c>
       <c r="D6" t="n">
         <v>232464.9813573309</v>
       </c>
       <c r="E6" t="n">
-        <v>-183484.2046084077</v>
+        <v>-182607.0724746588</v>
       </c>
       <c r="F6" t="n">
-        <v>341675.8318684876</v>
+        <v>342552.9640022372</v>
       </c>
       <c r="G6" t="n">
-        <v>341675.8318684874</v>
+        <v>342552.9640022372</v>
       </c>
       <c r="H6" t="n">
-        <v>341675.8318684877</v>
+        <v>342552.9640022375</v>
       </c>
       <c r="I6" t="n">
-        <v>341675.8318684876</v>
+        <v>342552.9640022374</v>
       </c>
       <c r="J6" t="n">
-        <v>165252.6126758949</v>
+        <v>166129.7448096442</v>
       </c>
       <c r="K6" t="n">
-        <v>341675.8318684879</v>
+        <v>342552.9640022374</v>
       </c>
       <c r="L6" t="n">
-        <v>341675.8318684878</v>
+        <v>342552.9640022374</v>
       </c>
       <c r="M6" t="n">
-        <v>206874.8166346508</v>
+        <v>207751.9487684004</v>
       </c>
       <c r="N6" t="n">
-        <v>341675.831868488</v>
+        <v>342552.9640022375</v>
       </c>
       <c r="O6" t="n">
-        <v>341675.8318684876</v>
+        <v>342552.9640022374</v>
       </c>
       <c r="P6" t="n">
-        <v>341675.8318684881</v>
+        <v>342552.9640022375</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540997</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054540997</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26776,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370129</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>11.51232345689994</v>
       </c>
       <c r="T2" t="n">
-        <v>82.52582970384</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>40.14644005042896</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>287.1315288463123</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>14.65885272800574</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>243.205144897451</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5.078602610310952</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858218</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>107.5829646831821</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041485</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304437</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565515</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540882</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104644</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4953007812706</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358982</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724843</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855523</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361485</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337665</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336899</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892241</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041485</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304437</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565515</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540882</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104644</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.4953007812706</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358982</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724843</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855523</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361485</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337665</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336899</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892241</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,46 +32466,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,43 +32545,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,43 +32627,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,10 +32782,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32794,7 +32794,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
@@ -32803,10 +32803,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32882,7 +32882,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,10 +32894,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303327</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109069</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951468</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349796</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490657</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.257704956024</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004659</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145263</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507396</v>
+        <v>287.7526615081896</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187468</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303327</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109069</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951468</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349796</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490657</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.257704956024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004659</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145263</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507396</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187468</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958075</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315245</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507405</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>425.9753597058702</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714617</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36445,19 +36445,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>334.8610358541616</v>
+        <v>674.475064263752</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
